--- a/Stunden Kosten.xlsx
+++ b/Stunden Kosten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Konzept/Projektmanagement</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Produktionskosten</t>
+  </si>
+  <si>
+    <t>Stundenübersicht des 1. Semesters - Stand 04.12.19</t>
+  </si>
+  <si>
+    <t>Stunden</t>
   </si>
 </sst>
 </file>
@@ -77,7 +83,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +98,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,11 +115,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -114,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -123,6 +146,11 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -425,20 +453,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -451,8 +487,11 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -470,13 +509,16 @@
         <f>D4*B4</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -484,23 +526,26 @@
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C5:C19" si="0">B6/24</f>
+        <f t="shared" ref="C6:C19" si="0">B6/24</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E5:E19" si="1">D6*B6</f>
+        <f t="shared" ref="E6:E19" si="1">D6*B6</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -518,13 +563,16 @@
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -542,13 +590,16 @@
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -566,13 +617,16 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -590,13 +644,16 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -615,12 +672,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -639,7 +696,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -657,30 +714,38 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="7">
         <f>SUM(B4:B19)</f>
         <v>500</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <f>SUM(C4:C19)</f>
         <v>20.833333333333336</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="9">
         <f>SUM(D4:D19)</f>
         <v>180</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="9">
         <f>SUM(E4:E19)</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="6"/>
+      <c r="G21" s="7">
+        <f>SUM(G4:G20)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <f>B21/7.7</f>
         <v>64.935064935064929</v>
@@ -688,6 +753,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
